--- a/TravellersV2.xlsx
+++ b/TravellersV2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VertaceGit\ePass_Web\public\assets\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1620435\Downloads\tes2-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA2657-B3B1-4238-A0C9-BFE837CD7D05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Please fill all the details and do NOT edit the headers (in red)</t>
   </si>
@@ -96,12 +91,60 @@
   </si>
   <si>
     <t>Traveller Age</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>20,Priyaramakrishna flats</t>
+  </si>
+  <si>
+    <t>4th avenue</t>
+  </si>
+  <si>
+    <t>Porur</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>sreenilayam</t>
+  </si>
+  <si>
+    <t>ramapuram po</t>
+  </si>
+  <si>
+    <t>ramapuram</t>
+  </si>
+  <si>
+    <t>Meenachil</t>
+  </si>
+  <si>
+    <t>Kottayam</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Jija</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Juan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,16 +592,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -579,7 +625,7 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -600,7 +646,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="19.05" x14ac:dyDescent="0.25">
       <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
@@ -617,7 +663,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -670,69 +716,160 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>980240456722</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4">
+        <v>979055480134</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4">
+        <v>979055480134</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -753,7 +890,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -774,7 +911,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -795,7 +932,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -816,7 +953,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -837,7 +974,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -858,7 +995,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -879,7 +1016,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -900,7 +1037,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -921,7 +1058,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -942,7 +1079,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -963,7 +1100,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -984,7 +1121,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1005,7 +1142,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1026,7 +1163,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1047,7 +1184,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1068,7 +1205,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1089,7 +1226,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1110,7 +1247,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1131,7 +1268,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1152,7 +1289,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1173,7 +1310,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1194,7 +1331,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1215,7 +1352,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1236,7 +1373,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1257,7 +1394,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1278,7 +1415,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -1299,7 +1436,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>

--- a/TravellersV2.xlsx
+++ b/TravellersV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1620435\Downloads\tes2-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA2657-B3B1-4238-A0C9-BFE837CD7D05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E4CE9-D553-489E-A147-5A799CD839FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Please fill all the details and do NOT edit the headers (in red)</t>
   </si>
@@ -93,24 +93,9 @@
     <t>Traveller Age</t>
   </si>
   <si>
-    <t>Mathew</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>20,Priyaramakrishna flats</t>
-  </si>
-  <si>
-    <t>4th avenue</t>
-  </si>
-  <si>
-    <t>Porur</t>
-  </si>
-  <si>
     <t>chennai</t>
   </si>
   <si>
@@ -132,13 +117,31 @@
     <t>Kerala</t>
   </si>
   <si>
-    <t>Jija</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Juan</t>
+    <t>Jayaprakash</t>
+  </si>
+  <si>
+    <t>Shekharan Nair</t>
+  </si>
+  <si>
+    <t>Sreeja</t>
+  </si>
+  <si>
+    <t>Avyukta</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>p2d2e,la celsete</t>
+  </si>
+  <si>
+    <t>Madhanadhapuram</t>
+  </si>
+  <si>
+    <t>mugalivakkam</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -721,50 +724,50 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="4">
-        <v>980240456722</v>
+        <v>449111963051</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -772,50 +775,50 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>252273696842</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4">
-        <v>979055480134</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -823,72 +826,102 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4">
+        <v>740634301862</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4">
-        <v>979055480134</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4">
+        <v>647073857484</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
